--- a/data/sector_correlations/2019_intra.xlsx
+++ b/data/sector_correlations/2019_intra.xlsx
@@ -448,411 +448,411 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Airlines(15)</t>
+          <t>Banks(246)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5014345947569746</v>
+        <v>0.535864800889695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4735946512814284</v>
+        <v>0.4876383660172545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Banks(271)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4528703959396902</v>
+        <v>0.4735946512814284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leisure Products(12)</t>
+          <t>Leisure Products(11)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4525282245702366</v>
+        <v>0.4685931722379817</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(34)</t>
+          <t>Energy Equipment &amp; Services(32)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4356391993546224</v>
+        <v>0.4588777949869692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors(28)</t>
+          <t>Multi-Utilities(18)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4116712621114977</v>
+        <v>0.4491987284344434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Multi-Utilities(19)</t>
+          <t>Trading Companies &amp; Distributors(25)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4075120162407165</v>
+        <v>0.4447503474417077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Machinery(93)</t>
+          <t>Machinery(85)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3732595365003816</v>
+        <v>0.420757989317279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gas Utilities(13)</t>
+          <t>Building Products(23)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3523518265369904</v>
+        <v>0.4164659188192756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Building Products(27)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3361833384820315</v>
+        <v>0.4040424720855461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(23)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3304561583524255</v>
+        <v>0.372095315183784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Electric Utilities(29)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3263698854774703</v>
+        <v>0.3537754031430047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chemicals(55)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.318634228384527</v>
+        <v>0.3526398566151605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(75)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3088467367095682</v>
+        <v>0.342474928558079</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Marine(16)</t>
+          <t>Chemicals(51)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.292418637346831</v>
+        <v>0.3364590752145379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(128)</t>
+          <t>Electric Utilities(28)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2863946000599435</v>
+        <v>0.335478499178457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(30)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2577262908887861</v>
+        <v>0.3092906967350258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Insurance(80)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2270662632692933</v>
+        <v>0.3006234740052968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(95)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2267647285524344</v>
+        <v>0.2873668454502063</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Electrical Equipment(31)</t>
+          <t>Construction &amp; Engineering(20)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2220755715282877</v>
+        <v>0.2735771613150294</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(52)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2199922528001119</v>
+        <v>0.266813741250306</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Blank Check / SPAC(32)</t>
+          <t>Metals &amp; Mining(89)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2131985905293876</v>
+        <v>0.2494195680278082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(23)</t>
+          <t>Insurance(75)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2128293390813306</v>
+        <v>0.2493363790682562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Capital Markets(87)</t>
+          <t>Electrical Equipment(28)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2110549289658009</v>
+        <v>0.2311967513597625</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Specialty Retail(63)</t>
+          <t>Specialty Retail(58)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2042321589731647</v>
+        <v>0.2298036480712669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(28)</t>
+          <t>Capital Markets(75)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1963054249458319</v>
+        <v>0.2231735188836178</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(54)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1933438379630692</v>
+        <v>0.1984899453511643</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(57)</t>
+          <t>Real Estate Management &amp; Development(22)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1885093037219088</v>
+        <v>0.1832707141719118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Beverages(22)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1825870602306528</v>
+        <v>0.1734925025275525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IT Services(58)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1625824382253435</v>
+        <v>0.1622985598874865</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Software(70)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1505160177275535</v>
+        <v>0.153694949467297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(48)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1490452568830368</v>
+        <v>0.1510486245465521</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Professional Services(38)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1473537454156937</v>
+        <v>0.1484281979832643</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Household Durables(43)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1254234502661507</v>
+        <v>0.1409376841253368</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(56)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1163563116854097</v>
+        <v>0.1366943865403495</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense(43)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1162615175209865</v>
+        <v>0.1338765716751593</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Media(47)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1090319396653854</v>
+        <v>0.1311558671429781</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(87)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1062982259626574</v>
+        <v>0.1142760206327241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Food Products(47)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1051560120643558</v>
+        <v>0.1037151347855811</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Communications Equipment(50)</t>
+          <t>Communications Equipment(45)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.08467629367125726</v>
+        <v>0.09691230739560371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Biotechnology(163)</t>
+          <t>Biotechnology(126)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.05350704883991899</v>
+        <v>0.07326983662085039</v>
       </c>
     </row>
   </sheetData>

--- a/data/sector_correlations/2019_intra.xlsx
+++ b/data/sector_correlations/2019_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,130 +728,140 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>No Sector(375)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1734925025275525</v>
+        <v>0.1756188511676548</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1622985598874865</v>
+        <v>0.1734925025275525</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Hotels, Restaurants &amp; Leisure(50)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.153694949467297</v>
+        <v>0.1622985598874865</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Software(66)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1510486245465521</v>
+        <v>0.153694949467297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IT Services(52)</t>
+          <t>Health Care Providers &amp; Services(46)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1484281979832643</v>
+        <v>0.1510486245465521</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>IT Services(52)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1409376841253368</v>
+        <v>0.1484281979832643</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1366943865403495</v>
+        <v>0.1409376841253368</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1338765716751593</v>
+        <v>0.1366943865403495</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Food Products(44)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1311558671429781</v>
+        <v>0.1338765716751593</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Pharmaceuticals(48)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1142760206327241</v>
+        <v>0.1311558671429781</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1037151347855811</v>
+        <v>0.1142760206327241</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Health Care Equipment &amp; Supplies(83)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.09691230739560371</v>
+        <v>0.1037151347855811</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Communications Equipment(45)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.09691230739560371</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Biotechnology(126)</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>0.07326983662085039</v>
       </c>
     </row>

--- a/data/sector_correlations/2019_intra.xlsx
+++ b/data/sector_correlations/2019_intra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,51 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Banks(246)</t>
+          <t>Mortgage Real Estate Investment Trust...(16)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.535864800889695</v>
+        <v>0.5458030839494004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Airlines(14)</t>
+          <t>Banks(251)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4876383660172545</v>
+        <v>0.5109315629143277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Auto Components(21)</t>
+          <t>Airlines(14)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4735946512814284</v>
+        <v>0.4876383660172545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leisure Products(11)</t>
+          <t>Auto Components(21)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4685931722379817</v>
+        <v>0.4735946512814284</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Energy Equipment &amp; Services(32)</t>
+          <t>Leisure Products(11)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4588777949869692</v>
+        <v>0.4685931722379817</v>
       </c>
     </row>
     <row r="7">
@@ -518,81 +518,81 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Machinery(85)</t>
+          <t>Machinery(86)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.420757989317279</v>
+        <v>0.4190249390402377</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Building Products(23)</t>
+          <t>Marine(15)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4164659188192756</v>
+        <v>0.4040424720855461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Marine(15)</t>
+          <t>Building Products(24)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4040424720855461</v>
+        <v>0.3934823903959807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Road &amp; Rail(22)</t>
+          <t>Energy Equipment &amp; Services(38)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.372095315183784</v>
+        <v>0.3930019441961127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gas Utilities(12)</t>
+          <t>Road &amp; Rail(22)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3537754031430047</v>
+        <v>0.372095315183784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Semiconductors &amp; Semiconductor Equipment(68)</t>
+          <t>Gas Utilities(12)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3526398566151605</v>
+        <v>0.3537754031430047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Containers &amp; Packaging(12)</t>
+          <t>Semiconductors &amp; Semiconductor Equipment(70)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.342474928558079</v>
+        <v>0.347408996185982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chemicals(51)</t>
+          <t>Containers &amp; Packaging(12)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3364590752145379</v>
+        <v>0.342474928558079</v>
       </c>
     </row>
     <row r="17">
@@ -608,61 +608,61 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
+          <t>Chemicals(52)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3092906967350258</v>
+        <v>0.3346378304215818</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Oil, Gas &amp; Consumable Fuels(122)</t>
+          <t>Textiles, Apparel &amp; Luxury Goods(29)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3006234740052968</v>
+        <v>0.3092906967350258</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Thrifts &amp; Mortgage Finance(47)</t>
+          <t>Oil, Gas &amp; Consumable Fuels(125)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2873668454502063</v>
+        <v>0.3066021482343901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering(20)</t>
+          <t>Construction &amp; Engineering(21)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2735771613150294</v>
+        <v>0.2901969734324868</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services(19)</t>
+          <t>Thrifts &amp; Mortgage Finance(47)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.266813741250306</v>
+        <v>0.2873668454502063</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Metals &amp; Mining(89)</t>
+          <t>Life Sciences Tools &amp; Services(19)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2494195680278082</v>
+        <v>0.266813741250306</v>
       </c>
     </row>
     <row r="24">
@@ -688,91 +688,91 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Specialty Retail(58)</t>
+          <t>Specialty Retail(59)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2298036480712669</v>
+        <v>0.2283518316305553</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Capital Markets(75)</t>
+          <t>Capital Markets(76)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2231735188836178</v>
+        <v>0.2190033797820798</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Beverages(21)</t>
+          <t>ETF(303)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1984899453511643</v>
+        <v>0.2050584300922346</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Real Estate Management &amp; Development(22)</t>
+          <t>Beverages(21)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1832707141719118</v>
+        <v>0.1984899453511643</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>No Sector(375)</t>
+          <t>Metals &amp; Mining(106)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1756188511676548</v>
+        <v>0.188150235078575</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies(52)</t>
+          <t>Real Estate Management &amp; Development(23)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1734925025275525</v>
+        <v>0.182575396346169</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hotels, Restaurants &amp; Leisure(50)</t>
+          <t>Commercial Services &amp; Supplies(52)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1622985598874865</v>
+        <v>0.1734925025275525</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Software(66)</t>
+          <t>Hotels, Restaurants &amp; Leisure(51)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.153694949467297</v>
+        <v>0.1701264839495237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Health Care Providers &amp; Services(46)</t>
+          <t>Electronic Equipment, Instruments &amp; C...(78)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1510486245465521</v>
+        <v>0.1698498170234863</v>
       </c>
     </row>
     <row r="35">
@@ -788,81 +788,111 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Household Durables(39)</t>
+          <t>Health Care Providers &amp; Services(47)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1409376841253368</v>
+        <v>0.1477258185257507</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Professional Services(35)</t>
+          <t>Household Durables(39)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1366943865403495</v>
+        <v>0.1409376841253368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Food Products(44)</t>
+          <t>Software(70)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1338765716751593</v>
+        <v>0.1389822047452081</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pharmaceuticals(48)</t>
+          <t>Professional Services(35)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1311558671429781</v>
+        <v>0.1366943865403495</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Media(42)</t>
+          <t>Food Products(46)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1142760206327241</v>
+        <v>0.1263535284096473</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Health Care Equipment &amp; Supplies(83)</t>
+          <t>Pharmaceuticals(53)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1037151347855811</v>
+        <v>0.1196534448946543</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Communications Equipment(45)</t>
+          <t>Media(42)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.09691230739560371</v>
+        <v>0.1142760206327241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Biotechnology(126)</t>
+          <t>Health Care Equipment &amp; Supplies(86)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.07326983662085039</v>
+        <v>0.1030140121109655</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Communications Equipment(45)</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.09691230739560371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Equity Real Estate Investment Trusts ...(98)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.07417038908594918</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Biotechnology(128)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.07117618574307928</v>
       </c>
     </row>
   </sheetData>
